--- a/Linea Base/Linea Base 01/Salvame-CP.xlsx
+++ b/Linea Base/Linea Base 01/Salvame-CP.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\U-Ramsés\CicloVI\GCS\Repositorio\Linea Base\Linea Base 01\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\U-Ramsés\CicloVI\GCS\Repositorio\Desarrollo\Salvame\Documentos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41F51C98-C7D5-4220-B25C-91E536BD39AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBA51486-CE21-47B5-BE58-459174778700}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="16020" yWindow="2505" windowWidth="15375" windowHeight="10410" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cronograma #1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="165">
   <si>
     <t>CRONOGRAMA DEL PROYECTO</t>
   </si>
@@ -147,9 +147,6 @@
     <t>Documento de Especificación de Requisitos: Actores</t>
   </si>
   <si>
-    <t>Salvame-A-ER.docx</t>
-  </si>
-  <si>
     <t>Salinas (DP)(A)</t>
   </si>
   <si>
@@ -213,9 +210,6 @@
     <t>Documento de Especificación de UI</t>
   </si>
   <si>
-    <t>Salvame-UI-DE.docx</t>
-  </si>
-  <si>
     <t>Ccanto (DUI), Camana (DUI) y Rivera (DUI)</t>
   </si>
   <si>
@@ -240,9 +234,6 @@
     <t>Documento de Especificación de la BD</t>
   </si>
   <si>
-    <t>Salvame-BD-DE.docx</t>
-  </si>
-  <si>
     <t>Rosas (DB) y Alata (ADB)</t>
   </si>
   <si>
@@ -496,6 +487,42 @@
   </si>
   <si>
     <t>Bibliotecario</t>
+  </si>
+  <si>
+    <t>Salvame-DERA.docx</t>
+  </si>
+  <si>
+    <t>Salvame-DERCU-01.docx</t>
+  </si>
+  <si>
+    <t>Salvame-DERCU-02.docx</t>
+  </si>
+  <si>
+    <t>Salvame-DERCU-03..docx</t>
+  </si>
+  <si>
+    <t>Salvame-DERCU-04.docx</t>
+  </si>
+  <si>
+    <t>Salvame-DERCU-05.docx</t>
+  </si>
+  <si>
+    <t>Salvame-DERCU-06.docx</t>
+  </si>
+  <si>
+    <t>Salvame-DERCU-07.docx</t>
+  </si>
+  <si>
+    <t>Salvame-DERCU-08.docx</t>
+  </si>
+  <si>
+    <t>Salvame-DERCU-09.docx</t>
+  </si>
+  <si>
+    <t>Salvame-DEUI.docx</t>
+  </si>
+  <si>
+    <t>Salvame-DEBD.docx</t>
   </si>
 </sst>
 </file>
@@ -1227,6 +1254,14 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1234,14 +1269,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1467,8 +1494,8 @@
   </sheetPr>
   <dimension ref="A1:Z1029"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="J30" sqref="J30"/>
+    <sheetView tabSelected="1" topLeftCell="C12" workbookViewId="0">
+      <selection activeCell="D63" sqref="D63:D64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
@@ -1476,7 +1503,7 @@
     <col min="1" max="1" width="2.28515625" customWidth="1"/>
     <col min="2" max="2" width="59.42578125" customWidth="1"/>
     <col min="3" max="3" width="64" customWidth="1"/>
-    <col min="4" max="4" width="22.42578125" customWidth="1"/>
+    <col min="4" max="4" width="25.7109375" customWidth="1"/>
     <col min="5" max="5" width="59.140625" customWidth="1"/>
     <col min="6" max="7" width="10.42578125" customWidth="1"/>
     <col min="8" max="8" width="14.42578125" customWidth="1"/>
@@ -1484,7 +1511,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="32.25" customHeight="1">
-      <c r="A1" s="84" t="s">
+      <c r="A1" s="88" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="83"/>
@@ -1497,10 +1524,10 @@
     </row>
     <row r="2" spans="1:11" ht="15.75" customHeight="1">
       <c r="A2" s="1"/>
-      <c r="B2" s="85" t="s">
+      <c r="B2" s="89" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="86"/>
+      <c r="C2" s="90"/>
       <c r="D2" s="2"/>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
@@ -1777,17 +1804,17 @@
     </row>
     <row r="16" spans="1:11" ht="15.75" customHeight="1">
       <c r="A16" s="14"/>
-      <c r="B16" s="87" t="s">
+      <c r="B16" s="91" t="s">
         <v>37</v>
       </c>
       <c r="C16" s="37" t="s">
         <v>38</v>
       </c>
       <c r="D16" s="38" t="s">
+        <v>153</v>
+      </c>
+      <c r="E16" s="25" t="s">
         <v>39</v>
-      </c>
-      <c r="E16" s="25" t="s">
-        <v>40</v>
       </c>
       <c r="F16" s="30">
         <v>44823</v>
@@ -1804,15 +1831,15 @@
     </row>
     <row r="17" spans="1:12" ht="15.75" customHeight="1">
       <c r="A17" s="14"/>
-      <c r="B17" s="88"/>
+      <c r="B17" s="85"/>
       <c r="C17" s="37" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D17" s="38" t="s">
-        <v>42</v>
+        <v>154</v>
       </c>
       <c r="E17" s="25" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F17" s="30">
         <v>44823</v>
@@ -1829,15 +1856,15 @@
     </row>
     <row r="18" spans="1:12" ht="15.75" customHeight="1">
       <c r="A18" s="14"/>
-      <c r="B18" s="88"/>
+      <c r="B18" s="85"/>
       <c r="C18" s="37" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D18" s="38" t="s">
-        <v>44</v>
+        <v>155</v>
       </c>
       <c r="E18" s="25" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F18" s="30">
         <v>44823</v>
@@ -1854,15 +1881,15 @@
     </row>
     <row r="19" spans="1:12" ht="15.75" customHeight="1">
       <c r="A19" s="14"/>
-      <c r="B19" s="88"/>
+      <c r="B19" s="85"/>
       <c r="C19" s="37" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D19" s="38" t="s">
-        <v>46</v>
+        <v>156</v>
       </c>
       <c r="E19" s="25" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F19" s="30">
         <v>44823</v>
@@ -1879,15 +1906,15 @@
     </row>
     <row r="20" spans="1:12" ht="15.75" customHeight="1">
       <c r="A20" s="14"/>
-      <c r="B20" s="88"/>
+      <c r="B20" s="85"/>
       <c r="C20" s="37" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D20" s="38" t="s">
-        <v>48</v>
+        <v>157</v>
       </c>
       <c r="E20" s="25" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F20" s="30">
         <v>44823</v>
@@ -1904,15 +1931,15 @@
     </row>
     <row r="21" spans="1:12" ht="15.75" customHeight="1">
       <c r="A21" s="14"/>
-      <c r="B21" s="88"/>
+      <c r="B21" s="85"/>
       <c r="C21" s="37" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D21" s="38" t="s">
-        <v>50</v>
+        <v>158</v>
       </c>
       <c r="E21" s="25" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F21" s="30">
         <v>44823</v>
@@ -1929,15 +1956,15 @@
     </row>
     <row r="22" spans="1:12" ht="15.75" customHeight="1">
       <c r="A22" s="14"/>
-      <c r="B22" s="88"/>
+      <c r="B22" s="85"/>
       <c r="C22" s="37" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D22" s="38" t="s">
-        <v>52</v>
+        <v>159</v>
       </c>
       <c r="E22" s="25" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F22" s="30">
         <v>44823</v>
@@ -1954,15 +1981,15 @@
     </row>
     <row r="23" spans="1:12" ht="26.25" customHeight="1">
       <c r="A23" s="14"/>
-      <c r="B23" s="88"/>
+      <c r="B23" s="85"/>
       <c r="C23" s="37" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D23" s="38" t="s">
-        <v>54</v>
+        <v>160</v>
       </c>
       <c r="E23" s="25" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F23" s="30">
         <v>44823</v>
@@ -1979,15 +2006,15 @@
     </row>
     <row r="24" spans="1:12" ht="27" customHeight="1">
       <c r="A24" s="14"/>
-      <c r="B24" s="88"/>
+      <c r="B24" s="85"/>
       <c r="C24" s="37" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D24" s="38" t="s">
-        <v>56</v>
+        <v>161</v>
       </c>
       <c r="E24" s="25" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F24" s="30">
         <v>44823</v>
@@ -2004,15 +2031,15 @@
     </row>
     <row r="25" spans="1:12" ht="26.25" customHeight="1">
       <c r="A25" s="14"/>
-      <c r="B25" s="89"/>
+      <c r="B25" s="86"/>
       <c r="C25" s="37" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D25" s="38" t="s">
-        <v>58</v>
+        <v>162</v>
       </c>
       <c r="E25" s="25" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F25" s="30">
         <v>44823</v>
@@ -2030,16 +2057,16 @@
     <row r="26" spans="1:12" ht="15.75" customHeight="1">
       <c r="A26" s="14"/>
       <c r="B26" s="39" t="s">
+        <v>58</v>
+      </c>
+      <c r="C26" s="29" t="s">
         <v>59</v>
       </c>
-      <c r="C26" s="29" t="s">
+      <c r="D26" s="38" t="s">
+        <v>163</v>
+      </c>
+      <c r="E26" s="25" t="s">
         <v>60</v>
-      </c>
-      <c r="D26" s="38" t="s">
-        <v>61</v>
-      </c>
-      <c r="E26" s="25" t="s">
-        <v>62</v>
       </c>
       <c r="F26" s="26">
         <v>44823</v>
@@ -2051,7 +2078,7 @@
         <v>1</v>
       </c>
       <c r="I26" s="82" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="J26" s="31"/>
       <c r="K26" s="32"/>
@@ -2059,16 +2086,16 @@
     <row r="27" spans="1:12" ht="15.75" customHeight="1">
       <c r="A27" s="14"/>
       <c r="B27" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="C27" s="34" t="s">
+        <v>63</v>
+      </c>
+      <c r="D27" s="38" t="s">
         <v>64</v>
       </c>
-      <c r="C27" s="34" t="s">
+      <c r="E27" s="25" t="s">
         <v>65</v>
-      </c>
-      <c r="D27" s="38" t="s">
-        <v>66</v>
-      </c>
-      <c r="E27" s="25" t="s">
-        <v>67</v>
       </c>
       <c r="F27" s="26">
         <v>44830</v>
@@ -2086,16 +2113,16 @@
     <row r="28" spans="1:12" ht="15.75" customHeight="1">
       <c r="A28" s="14"/>
       <c r="B28" s="40" t="s">
+        <v>66</v>
+      </c>
+      <c r="C28" s="41" t="s">
+        <v>67</v>
+      </c>
+      <c r="D28" s="38" t="s">
+        <v>164</v>
+      </c>
+      <c r="E28" s="25" t="s">
         <v>68</v>
-      </c>
-      <c r="C28" s="41" t="s">
-        <v>69</v>
-      </c>
-      <c r="D28" s="38" t="s">
-        <v>70</v>
-      </c>
-      <c r="E28" s="25" t="s">
-        <v>71</v>
       </c>
       <c r="F28" s="42">
         <v>44830</v>
@@ -2114,16 +2141,16 @@
     <row r="29" spans="1:12" ht="27" customHeight="1">
       <c r="A29" s="14"/>
       <c r="B29" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="C29" s="34" t="s">
+        <v>70</v>
+      </c>
+      <c r="D29" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="E29" s="25" t="s">
         <v>72</v>
-      </c>
-      <c r="C29" s="34" t="s">
-        <v>73</v>
-      </c>
-      <c r="D29" s="24" t="s">
-        <v>74</v>
-      </c>
-      <c r="E29" s="25" t="s">
-        <v>75</v>
       </c>
       <c r="F29" s="26">
         <v>44837</v>
@@ -2135,7 +2162,7 @@
         <v>1</v>
       </c>
       <c r="I29" s="28" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="J29" s="31"/>
       <c r="K29" s="32"/>
@@ -2143,16 +2170,16 @@
     <row r="30" spans="1:12" ht="26.25" customHeight="1">
       <c r="A30" s="14"/>
       <c r="B30" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="C30" s="34" t="s">
+        <v>75</v>
+      </c>
+      <c r="D30" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="E30" s="25" t="s">
         <v>77</v>
-      </c>
-      <c r="C30" s="34" t="s">
-        <v>78</v>
-      </c>
-      <c r="D30" s="24" t="s">
-        <v>79</v>
-      </c>
-      <c r="E30" s="25" t="s">
-        <v>80</v>
       </c>
       <c r="F30" s="26">
         <v>44837</v>
@@ -2164,7 +2191,7 @@
         <v>1</v>
       </c>
       <c r="I30" s="82" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="J30" s="31"/>
       <c r="K30" s="32"/>
@@ -2172,16 +2199,16 @@
     <row r="31" spans="1:12" ht="15.75" customHeight="1">
       <c r="A31" s="14"/>
       <c r="B31" s="44" t="s">
+        <v>79</v>
+      </c>
+      <c r="C31" s="34" t="s">
+        <v>80</v>
+      </c>
+      <c r="D31" s="38" t="s">
+        <v>81</v>
+      </c>
+      <c r="E31" s="25" t="s">
         <v>82</v>
-      </c>
-      <c r="C31" s="34" t="s">
-        <v>83</v>
-      </c>
-      <c r="D31" s="38" t="s">
-        <v>84</v>
-      </c>
-      <c r="E31" s="25" t="s">
-        <v>85</v>
       </c>
       <c r="F31" s="26">
         <v>44837</v>
@@ -2199,7 +2226,7 @@
     <row r="32" spans="1:12" ht="15.75" customHeight="1">
       <c r="A32" s="14"/>
       <c r="B32" s="45" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C32" s="46"/>
       <c r="D32" s="47"/>
@@ -2213,17 +2240,17 @@
     </row>
     <row r="33" spans="1:11" ht="15.75" customHeight="1">
       <c r="A33" s="14"/>
-      <c r="B33" s="90" t="s">
-        <v>87</v>
+      <c r="B33" s="84" t="s">
+        <v>84</v>
       </c>
       <c r="C33" s="37" t="s">
         <v>38</v>
       </c>
       <c r="D33" s="38" t="s">
-        <v>88</v>
+        <v>153</v>
       </c>
       <c r="E33" s="25" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F33" s="26">
         <v>44844</v>
@@ -2235,22 +2262,22 @@
         <v>0</v>
       </c>
       <c r="I33" s="82" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="J33" s="31"/>
       <c r="K33" s="2"/>
     </row>
     <row r="34" spans="1:11" ht="15.75" customHeight="1">
       <c r="A34" s="14"/>
-      <c r="B34" s="88"/>
+      <c r="B34" s="85"/>
       <c r="C34" s="37" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D34" s="38" t="s">
-        <v>42</v>
+        <v>154</v>
       </c>
       <c r="E34" s="25" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F34" s="26">
         <v>44844</v>
@@ -2267,15 +2294,15 @@
     </row>
     <row r="35" spans="1:11" ht="15.75" customHeight="1">
       <c r="A35" s="14"/>
-      <c r="B35" s="88"/>
+      <c r="B35" s="85"/>
       <c r="C35" s="37" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D35" s="38" t="s">
-        <v>44</v>
+        <v>155</v>
       </c>
       <c r="E35" s="25" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F35" s="26">
         <v>44844</v>
@@ -2292,15 +2319,15 @@
     </row>
     <row r="36" spans="1:11" ht="15.75" customHeight="1">
       <c r="A36" s="14"/>
-      <c r="B36" s="88"/>
+      <c r="B36" s="85"/>
       <c r="C36" s="37" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D36" s="38" t="s">
-        <v>46</v>
+        <v>156</v>
       </c>
       <c r="E36" s="25" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F36" s="26">
         <v>44844</v>
@@ -2317,15 +2344,15 @@
     </row>
     <row r="37" spans="1:11" ht="15.75" customHeight="1">
       <c r="A37" s="14"/>
-      <c r="B37" s="88"/>
+      <c r="B37" s="85"/>
       <c r="C37" s="37" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D37" s="38" t="s">
-        <v>48</v>
+        <v>157</v>
       </c>
       <c r="E37" s="25" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F37" s="26">
         <v>44844</v>
@@ -2342,15 +2369,15 @@
     </row>
     <row r="38" spans="1:11" ht="15.75" customHeight="1">
       <c r="A38" s="14"/>
-      <c r="B38" s="88"/>
+      <c r="B38" s="85"/>
       <c r="C38" s="37" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D38" s="38" t="s">
-        <v>50</v>
+        <v>158</v>
       </c>
       <c r="E38" s="25" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F38" s="26">
         <v>44844</v>
@@ -2367,15 +2394,15 @@
     </row>
     <row r="39" spans="1:11" ht="15.75" customHeight="1">
       <c r="A39" s="14"/>
-      <c r="B39" s="88"/>
+      <c r="B39" s="85"/>
       <c r="C39" s="37" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D39" s="38" t="s">
-        <v>52</v>
+        <v>159</v>
       </c>
       <c r="E39" s="25" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F39" s="26">
         <v>44844</v>
@@ -2392,15 +2419,15 @@
     </row>
     <row r="40" spans="1:11" ht="24" customHeight="1">
       <c r="A40" s="14"/>
-      <c r="B40" s="88"/>
+      <c r="B40" s="85"/>
       <c r="C40" s="37" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D40" s="38" t="s">
-        <v>54</v>
+        <v>160</v>
       </c>
       <c r="E40" s="25" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F40" s="26">
         <v>44844</v>
@@ -2417,15 +2444,15 @@
     </row>
     <row r="41" spans="1:11" ht="23.25" customHeight="1">
       <c r="A41" s="14"/>
-      <c r="B41" s="88"/>
+      <c r="B41" s="85"/>
       <c r="C41" s="37" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D41" s="38" t="s">
-        <v>56</v>
+        <v>161</v>
       </c>
       <c r="E41" s="25" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F41" s="26">
         <v>44844</v>
@@ -2442,15 +2469,15 @@
     </row>
     <row r="42" spans="1:11" ht="27" customHeight="1">
       <c r="A42" s="14"/>
-      <c r="B42" s="89"/>
+      <c r="B42" s="86"/>
       <c r="C42" s="37" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D42" s="38" t="s">
-        <v>58</v>
+        <v>162</v>
       </c>
       <c r="E42" s="25" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F42" s="26">
         <v>44844</v>
@@ -2468,13 +2495,13 @@
     <row r="43" spans="1:11" ht="15.75" customHeight="1">
       <c r="A43" s="14"/>
       <c r="B43" s="51" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C43" s="29" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D43" s="38" t="s">
-        <v>61</v>
+        <v>163</v>
       </c>
       <c r="E43" s="25" t="s">
         <v>18</v>
@@ -2495,16 +2522,16 @@
     <row r="44" spans="1:11" ht="15.75" customHeight="1">
       <c r="A44" s="14"/>
       <c r="B44" s="52" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C44" s="41" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D44" s="38" t="s">
-        <v>70</v>
+        <v>164</v>
       </c>
       <c r="E44" s="53" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="F44" s="26">
         <v>44844</v>
@@ -2522,16 +2549,16 @@
     <row r="45" spans="1:11" ht="15.75" customHeight="1">
       <c r="A45" s="14"/>
       <c r="B45" s="54" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C45" s="34" t="s">
+        <v>63</v>
+      </c>
+      <c r="D45" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="E45" s="25" t="s">
         <v>65</v>
-      </c>
-      <c r="D45" s="38" t="s">
-        <v>66</v>
-      </c>
-      <c r="E45" s="25" t="s">
-        <v>67</v>
       </c>
       <c r="F45" s="26">
         <v>44844</v>
@@ -2549,16 +2576,16 @@
     <row r="46" spans="1:11" ht="15.75" customHeight="1">
       <c r="A46" s="14"/>
       <c r="B46" s="55" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C46" s="29" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D46" s="38" t="s">
         <v>17</v>
       </c>
       <c r="E46" s="53" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="F46" s="26">
         <v>44844</v>
@@ -2576,16 +2603,16 @@
     <row r="47" spans="1:11" ht="15.75" customHeight="1">
       <c r="A47" s="14"/>
       <c r="B47" s="55" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C47" s="29" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D47" s="38" t="s">
         <v>17</v>
       </c>
       <c r="E47" s="53" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="F47" s="26">
         <v>44844</v>
@@ -2603,16 +2630,16 @@
     <row r="48" spans="1:11" ht="26.25" customHeight="1">
       <c r="A48" s="14"/>
       <c r="B48" s="22" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C48" s="34" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D48" s="24" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="E48" s="25" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="F48" s="26">
         <v>44851</v>
@@ -2624,7 +2651,7 @@
         <v>0</v>
       </c>
       <c r="I48" s="82" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="J48" s="31"/>
       <c r="K48" s="2"/>
@@ -2632,16 +2659,16 @@
     <row r="49" spans="1:11" ht="15.75" customHeight="1">
       <c r="A49" s="14"/>
       <c r="B49" s="44" t="s">
+        <v>79</v>
+      </c>
+      <c r="C49" s="56" t="s">
+        <v>98</v>
+      </c>
+      <c r="D49" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="E49" s="25" t="s">
         <v>82</v>
-      </c>
-      <c r="C49" s="56" t="s">
-        <v>101</v>
-      </c>
-      <c r="D49" s="24" t="s">
-        <v>102</v>
-      </c>
-      <c r="E49" s="25" t="s">
-        <v>85</v>
       </c>
       <c r="F49" s="26">
         <v>44851</v>
@@ -2659,7 +2686,7 @@
     <row r="50" spans="1:11" ht="15.75" customHeight="1">
       <c r="A50" s="14"/>
       <c r="B50" s="45" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C50" s="57"/>
       <c r="D50" s="58"/>
@@ -2674,16 +2701,16 @@
     <row r="51" spans="1:11" ht="15.75" customHeight="1">
       <c r="A51" s="14"/>
       <c r="B51" s="55" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C51" s="29" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D51" s="38" t="s">
         <v>17</v>
       </c>
       <c r="E51" s="53" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="F51" s="26">
         <v>44858</v>
@@ -2695,7 +2722,7 @@
         <v>0</v>
       </c>
       <c r="I51" s="82" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="J51" s="31"/>
       <c r="K51" s="2"/>
@@ -2703,16 +2730,16 @@
     <row r="52" spans="1:11" ht="15.75" customHeight="1">
       <c r="A52" s="14"/>
       <c r="B52" s="55" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C52" s="29" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D52" s="38" t="s">
         <v>17</v>
       </c>
       <c r="E52" s="53" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="F52" s="26">
         <v>44858</v>
@@ -2729,17 +2756,17 @@
     </row>
     <row r="53" spans="1:11" ht="15.75" customHeight="1">
       <c r="A53" s="14"/>
-      <c r="B53" s="91" t="s">
-        <v>109</v>
+      <c r="B53" s="87" t="s">
+        <v>106</v>
       </c>
       <c r="C53" s="37" t="s">
         <v>38</v>
       </c>
       <c r="D53" s="38" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="E53" s="25" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F53" s="26">
         <v>44858</v>
@@ -2756,15 +2783,15 @@
     </row>
     <row r="54" spans="1:11" ht="15.75" customHeight="1">
       <c r="A54" s="14"/>
-      <c r="B54" s="88"/>
+      <c r="B54" s="85"/>
       <c r="C54" s="37" t="s">
+        <v>40</v>
+      </c>
+      <c r="D54" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="D54" s="38" t="s">
-        <v>42</v>
-      </c>
       <c r="E54" s="25" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F54" s="26">
         <v>44858</v>
@@ -2781,15 +2808,15 @@
     </row>
     <row r="55" spans="1:11" ht="15.75" customHeight="1">
       <c r="A55" s="14"/>
-      <c r="B55" s="88"/>
+      <c r="B55" s="85"/>
       <c r="C55" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="D55" s="38" t="s">
         <v>43</v>
       </c>
-      <c r="D55" s="38" t="s">
-        <v>44</v>
-      </c>
       <c r="E55" s="25" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F55" s="26">
         <v>44858</v>
@@ -2806,15 +2833,15 @@
     </row>
     <row r="56" spans="1:11" ht="15.75" customHeight="1">
       <c r="A56" s="14"/>
-      <c r="B56" s="88"/>
+      <c r="B56" s="85"/>
       <c r="C56" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="D56" s="38" t="s">
         <v>45</v>
       </c>
-      <c r="D56" s="38" t="s">
-        <v>46</v>
-      </c>
       <c r="E56" s="25" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F56" s="26">
         <v>44858</v>
@@ -2831,15 +2858,15 @@
     </row>
     <row r="57" spans="1:11" ht="15.75" customHeight="1">
       <c r="A57" s="14"/>
-      <c r="B57" s="88"/>
+      <c r="B57" s="85"/>
       <c r="C57" s="37" t="s">
+        <v>46</v>
+      </c>
+      <c r="D57" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="D57" s="38" t="s">
-        <v>48</v>
-      </c>
       <c r="E57" s="25" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F57" s="26">
         <v>44858</v>
@@ -2856,15 +2883,15 @@
     </row>
     <row r="58" spans="1:11" ht="15.75" customHeight="1">
       <c r="A58" s="14"/>
-      <c r="B58" s="88"/>
+      <c r="B58" s="85"/>
       <c r="C58" s="37" t="s">
+        <v>48</v>
+      </c>
+      <c r="D58" s="38" t="s">
         <v>49</v>
       </c>
-      <c r="D58" s="38" t="s">
-        <v>50</v>
-      </c>
       <c r="E58" s="25" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F58" s="26">
         <v>44858</v>
@@ -2881,15 +2908,15 @@
     </row>
     <row r="59" spans="1:11" ht="15.75" customHeight="1">
       <c r="A59" s="14"/>
-      <c r="B59" s="88"/>
+      <c r="B59" s="85"/>
       <c r="C59" s="37" t="s">
+        <v>50</v>
+      </c>
+      <c r="D59" s="38" t="s">
         <v>51</v>
       </c>
-      <c r="D59" s="38" t="s">
-        <v>52</v>
-      </c>
       <c r="E59" s="25" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F59" s="26">
         <v>44858</v>
@@ -2906,15 +2933,15 @@
     </row>
     <row r="60" spans="1:11" ht="15.75" customHeight="1">
       <c r="A60" s="14"/>
-      <c r="B60" s="88"/>
+      <c r="B60" s="85"/>
       <c r="C60" s="37" t="s">
+        <v>52</v>
+      </c>
+      <c r="D60" s="38" t="s">
         <v>53</v>
       </c>
-      <c r="D60" s="38" t="s">
-        <v>54</v>
-      </c>
       <c r="E60" s="25" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F60" s="26">
         <v>44858</v>
@@ -2931,15 +2958,15 @@
     </row>
     <row r="61" spans="1:11" ht="15.75" customHeight="1">
       <c r="A61" s="14"/>
-      <c r="B61" s="88"/>
+      <c r="B61" s="85"/>
       <c r="C61" s="37" t="s">
+        <v>54</v>
+      </c>
+      <c r="D61" s="38" t="s">
         <v>55</v>
       </c>
-      <c r="D61" s="38" t="s">
-        <v>56</v>
-      </c>
       <c r="E61" s="25" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F61" s="26">
         <v>44858</v>
@@ -2956,15 +2983,15 @@
     </row>
     <row r="62" spans="1:11" ht="15.75" customHeight="1">
       <c r="A62" s="14"/>
-      <c r="B62" s="89"/>
+      <c r="B62" s="86"/>
       <c r="C62" s="37" t="s">
+        <v>56</v>
+      </c>
+      <c r="D62" s="38" t="s">
         <v>57</v>
       </c>
-      <c r="D62" s="38" t="s">
-        <v>58</v>
-      </c>
       <c r="E62" s="25" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F62" s="26">
         <v>44858</v>
@@ -2982,16 +3009,16 @@
     <row r="63" spans="1:11" ht="15.75" customHeight="1">
       <c r="A63" s="14"/>
       <c r="B63" s="51" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C63" s="29" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D63" s="38" t="s">
-        <v>61</v>
+        <v>163</v>
       </c>
       <c r="E63" s="53" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="F63" s="26">
         <v>44858</v>
@@ -3009,16 +3036,16 @@
     <row r="64" spans="1:11" ht="15.75" customHeight="1">
       <c r="A64" s="14"/>
       <c r="B64" s="52" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C64" s="61" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D64" s="38" t="s">
-        <v>70</v>
+        <v>164</v>
       </c>
       <c r="E64" s="53" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="F64" s="26">
         <v>44858</v>
@@ -3036,16 +3063,16 @@
     <row r="65" spans="1:26" ht="15.75" customHeight="1">
       <c r="A65" s="14"/>
       <c r="B65" s="44" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C65" s="56" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D65" s="24" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="E65" s="53" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="F65" s="26">
         <v>44858</v>
@@ -3063,7 +3090,7 @@
     <row r="66" spans="1:26" ht="15.75" customHeight="1">
       <c r="A66" s="14"/>
       <c r="B66" s="44" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C66" s="56" t="s">
         <v>35</v>
@@ -3072,7 +3099,7 @@
         <v>36</v>
       </c>
       <c r="E66" s="53" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="F66" s="26">
         <v>44858</v>
@@ -3105,16 +3132,16 @@
     <row r="67" spans="1:26" ht="15.75" customHeight="1">
       <c r="A67" s="14"/>
       <c r="B67" s="44" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C67" s="56" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D67" s="24" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E67" s="53" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="F67" s="26">
         <v>44872</v>
@@ -3147,16 +3174,16 @@
     <row r="68" spans="1:26" ht="15" customHeight="1">
       <c r="A68" s="14"/>
       <c r="B68" s="44" t="s">
+        <v>115</v>
+      </c>
+      <c r="C68" s="56" t="s">
+        <v>116</v>
+      </c>
+      <c r="D68" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="E68" s="53" t="s">
         <v>118</v>
-      </c>
-      <c r="C68" s="56" t="s">
-        <v>119</v>
-      </c>
-      <c r="D68" s="24" t="s">
-        <v>120</v>
-      </c>
-      <c r="E68" s="53" t="s">
-        <v>121</v>
       </c>
       <c r="F68" s="26">
         <v>44872</v>
@@ -3174,16 +3201,16 @@
     <row r="69" spans="1:26" ht="13.5" customHeight="1">
       <c r="A69" s="14"/>
       <c r="B69" s="44" t="s">
+        <v>119</v>
+      </c>
+      <c r="C69" s="56" t="s">
+        <v>120</v>
+      </c>
+      <c r="D69" s="24" t="s">
+        <v>121</v>
+      </c>
+      <c r="E69" s="53" t="s">
         <v>122</v>
-      </c>
-      <c r="C69" s="56" t="s">
-        <v>123</v>
-      </c>
-      <c r="D69" s="24" t="s">
-        <v>124</v>
-      </c>
-      <c r="E69" s="53" t="s">
-        <v>125</v>
       </c>
       <c r="F69" s="26">
         <v>44872</v>
@@ -3195,7 +3222,7 @@
         <v>0</v>
       </c>
       <c r="I69" s="82" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="J69" s="31"/>
       <c r="K69" s="2"/>
@@ -3203,16 +3230,16 @@
     <row r="70" spans="1:26" ht="26.25" customHeight="1">
       <c r="A70" s="14"/>
       <c r="B70" s="44" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C70" s="56" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D70" s="24" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="E70" s="53" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="F70" s="26">
         <v>44879</v>
@@ -3230,16 +3257,16 @@
     <row r="71" spans="1:26" ht="15.75" customHeight="1">
       <c r="A71" s="14"/>
       <c r="B71" s="44" t="s">
+        <v>79</v>
+      </c>
+      <c r="C71" s="56" t="s">
+        <v>125</v>
+      </c>
+      <c r="D71" s="24" t="s">
+        <v>126</v>
+      </c>
+      <c r="E71" s="53" t="s">
         <v>82</v>
-      </c>
-      <c r="C71" s="56" t="s">
-        <v>128</v>
-      </c>
-      <c r="D71" s="24" t="s">
-        <v>129</v>
-      </c>
-      <c r="E71" s="53" t="s">
-        <v>85</v>
       </c>
       <c r="F71" s="26">
         <v>44879</v>
@@ -3251,7 +3278,7 @@
         <v>0</v>
       </c>
       <c r="I71" s="82" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="J71" s="31"/>
       <c r="K71" s="2"/>
@@ -3259,16 +3286,16 @@
     <row r="72" spans="1:26" ht="15.75" customHeight="1">
       <c r="A72" s="14"/>
       <c r="B72" s="62" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C72" s="63" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D72" s="24" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="E72" s="53" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="F72" s="26">
         <v>44879</v>
@@ -3286,7 +3313,7 @@
     <row r="73" spans="1:26" ht="15.75" customHeight="1">
       <c r="A73" s="14"/>
       <c r="B73" s="64" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C73" s="65"/>
       <c r="D73" s="66"/>
@@ -5061,6 +5088,8 @@
     <row r="1029" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="I69:I70"/>
+    <mergeCell ref="I71:I73"/>
     <mergeCell ref="I30:I32"/>
     <mergeCell ref="B33:B42"/>
     <mergeCell ref="B53:B62"/>
@@ -5072,11 +5101,9 @@
     <mergeCell ref="I33:I47"/>
     <mergeCell ref="I48:I50"/>
     <mergeCell ref="I51:I68"/>
-    <mergeCell ref="I69:I70"/>
-    <mergeCell ref="I71:I73"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -5099,103 +5126,103 @@
     <row r="1" spans="2:4" ht="15.75" customHeight="1"/>
     <row r="2" spans="2:4" ht="15.75" customHeight="1">
       <c r="B2" s="73" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C2" s="14"/>
     </row>
     <row r="3" spans="2:4" ht="15.75" customHeight="1">
       <c r="B3" s="92" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C3" s="93"/>
-      <c r="D3" s="86"/>
+      <c r="D3" s="90"/>
     </row>
     <row r="4" spans="2:4" ht="15.75" customHeight="1">
       <c r="B4" s="74" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C4" s="75" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D4" s="76" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="5" spans="2:4" ht="15.75" customHeight="1">
       <c r="B5" s="77" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C5" s="78" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D5" s="78" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="6" spans="2:4" ht="15.75" customHeight="1">
       <c r="B6" s="77" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C6" s="78" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="D6" s="78" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="7" spans="2:4" ht="15.75" customHeight="1">
       <c r="B7" s="77" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C7" s="78" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="D7" s="78" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="8" spans="2:4" ht="15.75" customHeight="1">
       <c r="B8" s="79" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C8" s="78" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="D8" s="78" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="9" spans="2:4" ht="15.75" customHeight="1">
       <c r="B9" s="77" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C9" s="78" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="D9" s="78" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="10" spans="2:4" ht="15.75" customHeight="1">
       <c r="B10" s="77" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C10" s="78" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="D10" s="78" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="11" spans="2:4" ht="15.75" customHeight="1">
       <c r="B11" s="80" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C11" s="81" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D11" s="81" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="12" spans="2:4" ht="15.75" customHeight="1"/>
